--- a/Planing/Work Planing.xlsx
+++ b/Planing/Work Planing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="总纲" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
   <si>
     <t>日期</t>
   </si>
@@ -88,7 +88,8 @@
     <t>BUG-致命</t>
   </si>
   <si>
-    <t>启动文件问题注释了时钟初始化函数</t>
+    <t>启动文件问题，注释了时钟初始化函数以至于系统
+启动后没有调用时钟初始化函数。</t>
   </si>
   <si>
     <t>晶振不起振</t>
@@ -155,6 +156,28 @@
   </si>
   <si>
     <t>9月30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USB枚举过程中 stall pid</t>
+  </si>
+  <si>
+    <t>BUG-一般</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>要打开串口程序才能识别HID设备</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>程序中有使用printf函数，死在了等待发送完成的语句；</t>
+  </si>
+  <si>
+    <t>USB休眠后无法唤醒
+（不知道是不是休眠，保持总线上一直有数据就正常）</t>
   </si>
   <si>
     <t>10月1</t>
@@ -291,7 +314,121 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,82 +442,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -388,44 +449,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -442,181 +465,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,16 +653,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -669,17 +701,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,11 +721,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,15 +750,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -735,149 +758,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -890,17 +913,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1284,10 +1301,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1325,10 +1342,10 @@
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1340,13 +1357,12 @@
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3"/>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="2:7">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1363,10 +1379,10 @@
       </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:7">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1385,9 +1401,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="30" customHeight="1" spans="1:7">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6" t="s">
+    <row r="5" ht="30" customHeight="1" spans="2:7">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1396,10 +1411,10 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1407,10 +1422,10 @@
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:7">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1419,19 +1434,18 @@
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="3"/>
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1444,9 +1458,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="30" customHeight="1" spans="1:7">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
+    <row r="8" ht="30" customHeight="1" spans="2:7">
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1482,11 +1495,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" ht="30" customHeight="1" spans="1:2">
-      <c r="A13" s="4" t="s">
+    <row r="13" ht="30" customHeight="1" spans="1:1">
+      <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
@@ -1518,183 +1530,221 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" ht="30" customHeight="1" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="D20" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" ht="30" customHeight="1" spans="2:7">
+      <c r="B21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" ht="30" customHeight="1" spans="2:4">
+      <c r="B22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" ht="30" customHeight="1" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A20:A22"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"致命,严重,一般,提示"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C8 C2:C4 C6:C7 C9:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C8 C21 C22 C2:C4 C6:C7 C9:C20 C23:C1048576">
       <formula1>"BUG-致命,BUG-严重,BUG-一般,BUG-优化,总结-一级优先,总结-二级优先,总结-三级优先"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D8 D2:D4 D6:D7 D9:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D8 D21 D22 D2:D4 D6:D7 D9:D20 D23:D1048576">
       <formula1>"New,Assigned,Open,Fixed,Pending Reset,Close,Reopen"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5 G8 G2:G4 G6:G7 G9:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5 G8 G21 G22 G2:G4 G6:G7 G9:G20 G23:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1709,7 +1759,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>

--- a/Planing/Work Planing.xlsx
+++ b/Planing/Work Planing.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
   <si>
     <t>日期</t>
   </si>
@@ -116,45 +116,12 @@
     <t>关于keil的数据类型  关于原码、反码、补码</t>
   </si>
   <si>
-    <t>（core下面的stdint.h的55-110行）</t>
+    <t>（core下面的stdint.h 的55-110行）</t>
   </si>
   <si>
     <t>否</t>
   </si>
   <si>
-    <t>9月19</t>
-  </si>
-  <si>
-    <t>9月20</t>
-  </si>
-  <si>
-    <t>9月21</t>
-  </si>
-  <si>
-    <t>9月22</t>
-  </si>
-  <si>
-    <t>9月23</t>
-  </si>
-  <si>
-    <t>9月24</t>
-  </si>
-  <si>
-    <t>9月25</t>
-  </si>
-  <si>
-    <t>9月26</t>
-  </si>
-  <si>
-    <t>9月27</t>
-  </si>
-  <si>
-    <t>9月28</t>
-  </si>
-  <si>
-    <t>9月29</t>
-  </si>
-  <si>
     <t>9月30</t>
   </si>
   <si>
@@ -167,44 +134,33 @@
     <t>New</t>
   </si>
   <si>
-    <t>要打开串口程序才能识别HID设备</t>
-  </si>
-  <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>程序中有使用printf函数，死在了等待发送完成的语句；</t>
+    <t>要打开串口初始化程序才能识别HID设备</t>
+  </si>
+  <si>
+    <t>程序中有使用printf函数，但是并没有初始化串口外设，导致程序
+死在了等待发送完成的语句；</t>
   </si>
   <si>
     <t>USB休眠后无法唤醒
 （不知道是不是休眠，保持总线上一直有数据就正常）</t>
   </si>
   <si>
-    <t>10月1</t>
-  </si>
-  <si>
-    <t>10月2</t>
-  </si>
-  <si>
-    <t>10月3</t>
-  </si>
-  <si>
-    <t>10月4</t>
-  </si>
-  <si>
-    <t>10月5</t>
-  </si>
-  <si>
-    <t>10月6</t>
-  </si>
-  <si>
-    <t>10月7</t>
-  </si>
-  <si>
-    <t>10月8</t>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>以一定的时间间隔想总线发送空数据防止休眠</t>
+  </si>
+  <si>
+    <t>反应慢、跟手性差</t>
+  </si>
+  <si>
+    <t>其实也没有那么慢。。。。</t>
   </si>
   <si>
     <t>10月9</t>
+  </si>
+  <si>
+    <t>小动作识别概率低</t>
   </si>
   <si>
     <t>10月10</t>
@@ -278,10 +234,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -313,29 +269,108 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,83 +384,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,19 +392,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -459,13 +415,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,169 +589,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,8 +612,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,39 +687,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -721,32 +698,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,10 +714,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,130 +729,130 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1301,10 +1257,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1475,256 +1431,190 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" ht="30" customHeight="1" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" ht="30" customHeight="1" spans="1:1">
+    <row r="10" ht="30" customHeight="1" spans="2:7">
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="2:7">
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="2:5">
+      <c r="B12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" ht="30" customHeight="1" spans="1:4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" ht="30" customHeight="1" spans="2:7">
-      <c r="B21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" ht="30" customHeight="1" spans="2:4">
-      <c r="B22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" ht="30" customHeight="1" spans="1:1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1732,19 +1622,19 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A9:A12"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"致命,严重,一般,提示"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C8 C21 C22 C2:C4 C6:C7 C9:C20 C23:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C8 C9 C10 C11 C12 C2:C4 C6:C7 C13:C1048576">
       <formula1>"BUG-致命,BUG-严重,BUG-一般,BUG-优化,总结-一级优先,总结-二级优先,总结-三级优先"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D8 D21 D22 D2:D4 D6:D7 D9:D20 D23:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D8 D9 D10 D11 D12 D2:D4 D6:D7 D13:D1048576">
       <formula1>"New,Assigned,Open,Fixed,Pending Reset,Close,Reopen"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5 G8 G21 G22 G2:G4 G6:G7 G9:G20 G23:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5 G8 G9 G10 G11 G12 G2:G4 G6:G7 G13:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Planing/Work Planing.xlsx
+++ b/Planing/Work Planing.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t>日期</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>状态</t>
+  </si>
+  <si>
+    <t>解决前分析</t>
   </si>
   <si>
     <t>解决方案（备注）</t>
@@ -234,13 +237,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -264,6 +275,114 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,114 +403,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -415,85 +426,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,97 +600,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,45 +617,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -689,11 +661,50 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,10 +725,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -726,153 +737,162 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1257,364 +1277,368 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="52.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="41.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="52.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.125" customWidth="1"/>
+    <col min="6" max="6" width="46.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="41.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="23" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="30" customHeight="1" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="2" ht="30" customHeight="1" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" ht="30" customHeight="1" spans="2:7">
-      <c r="B3" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="2:8">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1" spans="2:8">
+      <c r="B5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="1" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" ht="30" customHeight="1" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1" spans="2:8">
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" ht="30" customHeight="1" spans="2:7">
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="2:8">
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="2:8">
+      <c r="B11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" ht="30" customHeight="1" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="2:6">
+      <c r="B12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" ht="30" customHeight="1" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" ht="30" customHeight="1" spans="2:7">
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" ht="30" customHeight="1" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" ht="30" customHeight="1" spans="2:7">
-      <c r="B10" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" ht="30" customHeight="1" spans="2:7">
-      <c r="B11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" ht="30" customHeight="1" spans="2:5">
-      <c r="B12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>44</v>
+      <c r="F12" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>37</v>
+      <c r="B13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>47</v>
+      <c r="A14" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>48</v>
+      <c r="A15" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>49</v>
+      <c r="A16" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>50</v>
+      <c r="A17" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>51</v>
+      <c r="A18" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>52</v>
+      <c r="A19" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>53</v>
+      <c r="A20" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>54</v>
+      <c r="A21" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>55</v>
+      <c r="A22" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>56</v>
+      <c r="A23" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>57</v>
+      <c r="A24" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>58</v>
+      <c r="A25" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
-        <v>59</v>
+      <c r="A26" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>60</v>
+      <c r="A27" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
-        <v>61</v>
+      <c r="A28" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
-        <v>62</v>
+      <c r="A29" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
-        <v>63</v>
+      <c r="A30" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
-        <v>64</v>
+      <c r="A31" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
-        <v>65</v>
+      <c r="A32" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
-        <v>66</v>
+      <c r="A33" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
-        <v>67</v>
+      <c r="A34" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
-        <v>68</v>
+      <c r="A35" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1625,6 +1649,9 @@
     <mergeCell ref="A9:A12"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5 H8 H9 H10 H11 H12 H2:H4 H6:H7 H13:H1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"致命,严重,一般,提示"</formula1>
     </dataValidation>
@@ -1633,9 +1660,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D8 D9 D10 D11 D12 D2:D4 D6:D7 D13:D1048576">
       <formula1>"New,Assigned,Open,Fixed,Pending Reset,Close,Reopen"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5 G8 G9 G10 G11 G12 G2:G4 G6:G7 G13:G1048576">
-      <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planing/Work Planing.xlsx
+++ b/Planing/Work Planing.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
   <si>
     <t>日期</t>
   </si>
@@ -157,7 +157,7 @@
     <t>反应慢、跟手性差</t>
   </si>
   <si>
-    <t>其实也没有那么慢。。。。</t>
+    <t>一点一点优化</t>
   </si>
   <si>
     <t>10月9</t>
@@ -166,6 +166,9 @@
     <t>小动作识别概率低</t>
   </si>
   <si>
+    <t>及时将状态清零</t>
+  </si>
+  <si>
     <t>10月10</t>
   </si>
   <si>
@@ -176,6 +179,19 @@
   </si>
   <si>
     <t>10月13</t>
+  </si>
+  <si>
+    <t>BUS Hound能抓取到数据，但是上位机读取的时候会崩溃</t>
+  </si>
+  <si>
+    <t>1.不排除是上位机问题
+建议找到一个可靠的下位机来验证上位机工作是否正常
+2.BUS Hound抓到数据只是说明总线上有数据
+利用BUS Hound以外的相对成熟的上位机来验证下位机能否工作正常</t>
+  </si>
+  <si>
+    <t>报告描述符关于端点1数据大小的描述和实际上传的数据大小不一致
+修改为一致即可</t>
   </si>
   <si>
     <t>10月14</t>
@@ -242,7 +258,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +289,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -280,41 +318,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -341,6 +349,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -348,17 +400,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,6 +424,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,36 +441,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,187 +456,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,6 +647,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -644,17 +689,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,8 +701,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,26 +733,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,10 +755,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,137 +767,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -880,20 +910,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1280,7 +1319,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1289,35 +1328,35 @@
     <col min="2" max="2" width="52.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37.125" customWidth="1"/>
-    <col min="6" max="6" width="46.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="41.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="37.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="46.125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="41.625" style="5" customWidth="1"/>
     <col min="8" max="8" width="14" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="23" customHeight="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1334,7 +1373,7 @@
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1351,7 +1390,7 @@
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1371,10 +1410,10 @@
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -1394,7 +1433,7 @@
       <c r="F5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -1414,7 +1453,7 @@
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -1448,7 +1487,7 @@
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -1496,7 +1535,7 @@
       <c r="D11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="5" t="s">
         <v>43</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -1511,13 +1550,13 @@
         <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" ht="30" customHeight="1" spans="1:4">
+    <row r="13" ht="30" customHeight="1" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
@@ -1528,117 +1567,135 @@
         <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" ht="62" customHeight="1" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1649,9 +1706,6 @@
     <mergeCell ref="A9:A12"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5 H8 H9 H10 H11 H12 H2:H4 H6:H7 H13:H1048576">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"致命,严重,一般,提示"</formula1>
     </dataValidation>
@@ -1660,6 +1714,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D8 D9 D10 D11 D12 D2:D4 D6:D7 D13:D1048576">
       <formula1>"New,Assigned,Open,Fixed,Pending Reset,Close,Reopen"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5 H8 H9 H10 H11 H12 H2:H4 H6:H7 H13:H1048576">
+      <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
